--- a/ML-model/Pune_EV.xlsx
+++ b/ML-model/Pune_EV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Work\SEM 6\PBL - II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manas\whatevs\pbl-2\code\raichu-full\ML-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D6439FD-9C68-4E0D-9EB0-76E3B9DD75AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184DE32A-5D0A-453F-8747-87A07BB6B3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14AFD580-D034-482F-80B7-9094597BE3A5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="87">
   <si>
     <t>No.</t>
   </si>
@@ -48,12 +48,6 @@
     <t>sus</t>
   </si>
   <si>
-    <t xml:space="preserve">84, Pashan - Sus Rd, Pashan, Pune, Maharashtra </t>
-  </si>
-  <si>
-    <t>pin</t>
-  </si>
-  <si>
     <t>7.4 kW</t>
   </si>
   <si>
@@ -262,6 +256,36 @@
   </si>
   <si>
     <t>FXH7+3F7, Tarangana residency, Phursungi</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>24h</t>
+  </si>
+  <si>
+    <t>Shell Recharge Charging Station, Sus Ln, Sus, Pune</t>
+  </si>
+  <si>
+    <t>timings</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>9 am - 9 pm</t>
+  </si>
+  <si>
+    <t>6 am - 11 pm</t>
   </si>
 </sst>
 </file>
@@ -297,9 +321,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,19 +637,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC42C58F-B30A-41DB-9166-A0A56D1D6C65}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.44140625" customWidth="1"/>
     <col min="3" max="3" width="146.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,10 +671,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -657,7 +691,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>18.553461971417899</v>
@@ -665,22 +699,31 @@
       <c r="E2">
         <v>73.756113554963207</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
       <c r="G2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H2">
         <v>411021</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>18.579630584916899</v>
@@ -688,22 +731,31 @@
       <c r="E3">
         <v>73.762776184689898</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
       <c r="G3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H3">
         <v>411045</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4">
         <v>18.570929280479898</v>
@@ -711,22 +763,31 @@
       <c r="E4">
         <v>73.764921394384899</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
       <c r="G4">
+        <v>4.3</v>
+      </c>
+      <c r="H4">
         <v>411045</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>18.592927920949698</v>
@@ -734,22 +795,31 @@
       <c r="E5">
         <v>73.703306681758406</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
       <c r="G5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H5">
         <v>411057</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>18.5961445403609</v>
@@ -757,22 +827,31 @@
       <c r="E6">
         <v>73.724590935968493</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
+      <c r="F6" t="s">
+        <v>7</v>
       </c>
       <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
         <v>411057</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
       <c r="D7">
         <v>18.590902700468401</v>
@@ -780,22 +859,31 @@
       <c r="E7">
         <v>73.738067474189293</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
+      <c r="F7" t="s">
+        <v>7</v>
       </c>
       <c r="G7">
+        <v>4.7</v>
+      </c>
+      <c r="H7">
         <v>411057</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>18.592941582242702</v>
@@ -803,22 +891,31 @@
       <c r="E8">
         <v>73.748378123429305</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
+      <c r="F8" t="s">
+        <v>7</v>
       </c>
       <c r="G8">
+        <v>3.9</v>
+      </c>
+      <c r="H8">
         <v>411057</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>18.6000818639823</v>
@@ -826,22 +923,31 @@
       <c r="E9">
         <v>73.753796885447201</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
+      <c r="F9" t="s">
+        <v>7</v>
       </c>
       <c r="G9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H9">
         <v>411057</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>18.604247257832199</v>
@@ -849,22 +955,31 @@
       <c r="E10">
         <v>73.754378577268994</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
+      <c r="F10" t="s">
+        <v>7</v>
       </c>
       <c r="G10">
+        <v>4.8</v>
+      </c>
+      <c r="H10">
         <v>411057</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
       <c r="D11">
         <v>18.610127640316801</v>
@@ -872,22 +987,31 @@
       <c r="E11">
         <v>73.758515052446896</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
+      <c r="F11" t="s">
+        <v>7</v>
       </c>
       <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
         <v>411033</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>18.599187058978799</v>
@@ -895,22 +1019,31 @@
       <c r="E12">
         <v>73.774542208864503</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
+      <c r="F12" t="s">
+        <v>7</v>
       </c>
       <c r="G12">
+        <v>4.2</v>
+      </c>
+      <c r="H12">
         <v>411057</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>18.589422313470699</v>
@@ -918,22 +1051,31 @@
       <c r="E13">
         <v>73.782546487512207</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
+      <c r="F13" t="s">
+        <v>7</v>
       </c>
       <c r="G13">
+        <v>4.3</v>
+      </c>
+      <c r="H13">
         <v>411027</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>18.601891043285999</v>
@@ -941,22 +1083,31 @@
       <c r="E14">
         <v>73.7829823639984</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
+      <c r="F14" t="s">
+        <v>7</v>
       </c>
       <c r="G14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H14">
         <v>411027</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>18.5139030555363</v>
@@ -964,22 +1115,31 @@
       <c r="E15">
         <v>73.802474009538599</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
+      <c r="F15" t="s">
+        <v>7</v>
       </c>
       <c r="G15">
+        <v>4.3</v>
+      </c>
+      <c r="H15">
         <v>411038</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>18.5796779051005</v>
@@ -987,22 +1147,31 @@
       <c r="E16">
         <v>73.815999548461903</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
+      <c r="F16" t="s">
+        <v>7</v>
       </c>
       <c r="G16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H16">
         <v>411027</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>18.569571950069498</v>
@@ -1010,22 +1179,31 @@
       <c r="E17">
         <v>73.812817068771906</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
+      <c r="F17" t="s">
+        <v>7</v>
       </c>
       <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
         <v>411007</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>18.5635382585725</v>
@@ -1033,22 +1211,31 @@
       <c r="E18">
         <v>73.804065249624301</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
+      <c r="F18" t="s">
+        <v>7</v>
       </c>
       <c r="G18">
+        <v>4.7</v>
+      </c>
+      <c r="H18">
         <v>411007</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
       </c>
       <c r="D19">
         <v>18.562934877685301</v>
@@ -1056,22 +1243,31 @@
       <c r="E19">
         <v>73.810111961035403</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
+      <c r="F19" t="s">
+        <v>7</v>
       </c>
       <c r="G19">
+        <v>3.9</v>
+      </c>
+      <c r="H19">
         <v>411007</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>18.558560302441201</v>
@@ -1079,22 +1275,31 @@
       <c r="E20">
         <v>73.807088605329895</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
+      <c r="F20" t="s">
+        <v>7</v>
       </c>
       <c r="G20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H20">
         <v>411007</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21">
         <v>18.619238012531099</v>
@@ -1102,22 +1307,31 @@
       <c r="E21">
         <v>73.816010625225303</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
+      <c r="F21" t="s">
+        <v>7</v>
       </c>
       <c r="G21">
+        <v>4.8</v>
+      </c>
+      <c r="H21">
         <v>411018</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22">
         <v>18.626851370233702</v>
@@ -1125,22 +1339,31 @@
       <c r="E22">
         <v>73.830357086820797</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
+      <c r="F22" t="s">
+        <v>7</v>
       </c>
       <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
         <v>411026</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>18.511455786342101</v>
@@ -1148,22 +1371,31 @@
       <c r="E23">
         <v>73.829373151681494</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>9</v>
+      <c r="F23" t="s">
+        <v>7</v>
       </c>
       <c r="G23">
+        <v>4.2</v>
+      </c>
+      <c r="H23">
         <v>411004</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <v>18.5456360962615</v>
@@ -1171,22 +1403,31 @@
       <c r="E24">
         <v>73.882931499869599</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>9</v>
+      <c r="F24" t="s">
+        <v>7</v>
       </c>
       <c r="G24">
+        <v>4.3</v>
+      </c>
+      <c r="H24">
         <v>411001</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25">
         <v>18.5332668684695</v>
@@ -1194,22 +1435,31 @@
       <c r="E25">
         <v>73.863705426161104</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>9</v>
+      <c r="F25" t="s">
+        <v>7</v>
       </c>
       <c r="G25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H25">
         <v>411001</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26">
         <v>18.5322903123499</v>
@@ -1217,22 +1467,31 @@
       <c r="E26">
         <v>73.875721722228903</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>9</v>
+      <c r="F26" t="s">
+        <v>7</v>
       </c>
       <c r="G26">
+        <v>4.3</v>
+      </c>
+      <c r="H26">
         <v>411001</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>18.5173157533041</v>
@@ -1240,22 +1499,31 @@
       <c r="E27">
         <v>73.828343183447103</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>9</v>
+      <c r="F27" t="s">
+        <v>7</v>
       </c>
       <c r="G27">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H27">
         <v>411004</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28">
         <v>18.506246758351701</v>
@@ -1263,22 +1531,31 @@
       <c r="E28">
         <v>73.855809003030799</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>9</v>
+      <c r="F28" t="s">
+        <v>7</v>
       </c>
       <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
         <v>411002</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29">
         <v>18.502014306385799</v>
@@ -1286,22 +1563,31 @@
       <c r="E29">
         <v>73.871601849291395</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>9</v>
+      <c r="F29" t="s">
+        <v>7</v>
       </c>
       <c r="G29">
+        <v>4.7</v>
+      </c>
+      <c r="H29">
         <v>411037</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30">
         <v>18.476943023350401</v>
@@ -1309,22 +1595,31 @@
       <c r="E30">
         <v>73.828343183447103</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>9</v>
+      <c r="F30" t="s">
+        <v>7</v>
       </c>
       <c r="G30">
+        <v>3.9</v>
+      </c>
+      <c r="H30">
         <v>411041</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D31">
         <v>18.463917532950099</v>
@@ -1332,22 +1627,31 @@
       <c r="E31">
         <v>73.805340559545897</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>9</v>
+      <c r="F31" t="s">
+        <v>7</v>
       </c>
       <c r="G31">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H31">
         <v>411041</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <v>18.5009154793518</v>
@@ -1355,22 +1659,31 @@
       <c r="E32">
         <v>73.899146605035398</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>9</v>
+      <c r="F32" t="s">
+        <v>7</v>
       </c>
       <c r="G32">
+        <v>4.8</v>
+      </c>
+      <c r="H32">
         <v>411040</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D33">
         <v>18.509380332971102</v>
@@ -1378,22 +1691,31 @@
       <c r="E33">
         <v>73.898459959545804</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>9</v>
+      <c r="F33" t="s">
+        <v>7</v>
       </c>
       <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
         <v>401140</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34">
         <v>18.581640095767</v>
@@ -1401,22 +1723,31 @@
       <c r="E34">
         <v>73.961288022198701</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>9</v>
+      <c r="F34" t="s">
+        <v>7</v>
       </c>
       <c r="G34">
+        <v>4.2</v>
+      </c>
+      <c r="H34">
         <v>412207</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35">
         <v>18.5692734771659</v>
@@ -1424,22 +1755,31 @@
       <c r="E35">
         <v>73.939315366531801</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>9</v>
+      <c r="F35" t="s">
+        <v>7</v>
       </c>
       <c r="G35">
+        <v>4.3</v>
+      </c>
+      <c r="H35">
         <v>411014</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36">
         <v>18.5679716756649</v>
@@ -1447,22 +1787,31 @@
       <c r="E36">
         <v>73.956138181026702</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>9</v>
+      <c r="F36" t="s">
+        <v>7</v>
       </c>
       <c r="G36">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H36">
         <v>412207</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37">
         <v>18.555929540938099</v>
@@ -1470,22 +1819,31 @@
       <c r="E37">
         <v>73.932448910506196</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>9</v>
+      <c r="F37" t="s">
+        <v>7</v>
       </c>
       <c r="G37">
+        <v>4.3</v>
+      </c>
+      <c r="H37">
         <v>411014</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>86</v>
+      </c>
+      <c r="J37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D38">
         <v>18.546490516968099</v>
@@ -1493,22 +1851,31 @@
       <c r="E38">
         <v>73.916656064245601</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>9</v>
+      <c r="F38" t="s">
+        <v>7</v>
       </c>
       <c r="G38">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H38">
         <v>411014</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D39">
         <v>18.547466991921802</v>
@@ -1516,22 +1883,31 @@
       <c r="E39">
         <v>73.935538815209298</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>9</v>
+      <c r="F39" t="s">
+        <v>7</v>
       </c>
       <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
         <v>411014</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>85</v>
+      </c>
+      <c r="J39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D40">
         <v>18.520527267029301</v>
@@ -1539,22 +1915,31 @@
       <c r="E40">
         <v>73.935756429893402</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>9</v>
+      <c r="F40" t="s">
+        <v>7</v>
       </c>
       <c r="G40">
+        <v>4.7</v>
+      </c>
+      <c r="H40">
         <v>411028</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D41">
         <v>18.519990811152901</v>
@@ -1562,22 +1947,31 @@
       <c r="E41">
         <v>73.936664089207994</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>9</v>
+      <c r="F41" t="s">
+        <v>7</v>
       </c>
       <c r="G41">
+        <v>3.9</v>
+      </c>
+      <c r="H41">
         <v>411028</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
         <v>70</v>
-      </c>
-      <c r="C42" t="s">
-        <v>72</v>
       </c>
       <c r="D42">
         <v>18.519295058366399</v>
@@ -1585,22 +1979,31 @@
       <c r="E42">
         <v>73.941209083895203</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>9</v>
+      <c r="F42" t="s">
+        <v>7</v>
       </c>
       <c r="G42">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H42">
         <v>411028</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D43">
         <v>18.518999586793299</v>
@@ -1608,22 +2011,31 @@
       <c r="E43">
         <v>73.946662212678504</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>9</v>
+      <c r="F43" t="s">
+        <v>7</v>
       </c>
       <c r="G43">
+        <v>4.8</v>
+      </c>
+      <c r="H43">
         <v>411028</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D44">
         <v>18.516044842991999</v>
@@ -1631,22 +2043,31 @@
       <c r="E44">
         <v>73.945883194280796</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>9</v>
+      <c r="F44" t="s">
+        <v>7</v>
       </c>
       <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
         <v>411028</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D45">
         <v>18.504475934957298</v>
@@ -1654,22 +2075,31 @@
       <c r="E45">
         <v>73.973704962609901</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>9</v>
+      <c r="F45" t="s">
+        <v>7</v>
       </c>
       <c r="G45">
+        <v>4.2</v>
+      </c>
+      <c r="H45">
         <v>412307</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D46">
         <v>18.4920564984875</v>
@@ -1677,22 +2107,31 @@
       <c r="E46">
         <v>73.956669844151904</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>9</v>
+      <c r="F46" t="s">
+        <v>7</v>
       </c>
       <c r="G46">
+        <v>4.3</v>
+      </c>
+      <c r="H46">
         <v>411014</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D47">
         <v>18.488068258321</v>
@@ -1700,11 +2139,20 @@
       <c r="E47">
         <v>73.9650804932771</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>9</v>
+      <c r="F47" t="s">
+        <v>7</v>
       </c>
       <c r="G47">
+        <v>4.2</v>
+      </c>
+      <c r="H47">
         <v>411014</v>
+      </c>
+      <c r="I47" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
